--- a/04_Output/Statewide_Hg_Advisory/Hg_Statewide_Final_2024.xlsx
+++ b/04_Output/Statewide_Hg_Advisory/Hg_Statewide_Final_2024.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -395,55 +395,50 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>In_Existing_Advisory</t>
+          <t>Commonly_Consumed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Commonly_Consumed</t>
+          <t>GP_MealsPerMonth</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>GP_MealsPerMonth</t>
+          <t>GP_SW_Change</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>GP_SW_Change</t>
+          <t>Existing_GP_MealsPerMonth</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Existing_GP_MealsPerMonth</t>
+          <t>WCBA_MealsPerMonth</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>WCBA_MealsPerMonth</t>
+          <t>WCBA_SW_Change</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>WCBA_SW_Change</t>
+          <t>Existing_WCBA_MealsPerMonth</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Existing_WCBA_MealsPerMonth</t>
+          <t>Children_MealsPerMonth</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Children_MealsPerMonth</t>
+          <t>Children_SW_Change</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Children_SW_Change</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>Existing_Children_MealsPerMonth</t>
         </is>
@@ -474,7 +469,7 @@
         <v>457</v>
       </c>
       <c r="F2">
-        <v>0.08682363264311582</v>
+        <v>0.08682363252954048</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -486,46 +481,41 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J2">
-        <v>12</v>
+      <c r="I2">
+        <v>24</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M2">
+      <c r="L2">
         <v>8</v>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P2">
+      <c r="O2">
         <v>3</v>
       </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="Q2" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -534,17 +524,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Brown Trout</t>
+          <t>Trout - unspecified</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>LOC</t>
+          <t>TRT</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>LOC</t>
+          <t>TRT</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -553,10 +543,10 @@
         </is>
       </c>
       <c r="E3">
-        <v>464</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>0.1136260778745155</v>
+        <v>0.1292857137142857</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -568,65 +558,60 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J3">
-        <v>8</v>
+      <c r="I3">
+        <v>16</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M3">
+          <t>No existing advisory</t>
+        </is>
+      </c>
+      <c r="L3">
         <v>4</v>
       </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P3">
+          <t>No existing advisory</t>
+        </is>
+      </c>
+      <c r="O3">
         <v>2</v>
       </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>No existing advisory</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Splake</t>
+          <t>Brown Trout</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SPL</t>
+          <t>LOC</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>SPL</t>
+          <t>LOC</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -635,10 +620,10 @@
         </is>
       </c>
       <c r="E4">
-        <v>63</v>
+        <v>464</v>
       </c>
       <c r="F4">
-        <v>0.1107777792309957</v>
+        <v>0.1136260777823276</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -650,46 +635,41 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J4">
-        <v>8</v>
+      <c r="I4">
+        <v>20</v>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M4">
+      <c r="L4">
         <v>4</v>
       </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="N4" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P4">
-        <v>2</v>
-      </c>
       <c r="Q4" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -698,17 +678,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Brook Trout</t>
+          <t>Splake</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>SPL</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BRK</t>
+          <t>SPL</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -717,10 +697,10 @@
         </is>
       </c>
       <c r="E5">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="F5">
-        <v>0.0926458339672535</v>
+        <v>0.1107777787936508</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -732,46 +712,41 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J5">
-        <v>8</v>
+      <c r="I5">
+        <v>20</v>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="M5">
-        <v>8</v>
-      </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P5">
+      <c r="O5">
         <v>2</v>
       </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q5" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -780,17 +755,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Tiger Muskie</t>
+          <t>Brook Trout</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TGM</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TGM</t>
+          <t>BRK</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -799,10 +774,10 @@
         </is>
       </c>
       <c r="E6">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="F6">
-        <v>0.2778750006109476</v>
+        <v>0.09264583360416667</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -814,65 +789,60 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J6">
-        <v>3</v>
+      <c r="I6">
+        <v>24</v>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M6">
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L6">
+        <v>8</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O6">
         <v>2</v>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="P6">
-        <v>0.5</v>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lake Trout(Mackinaw)</t>
+          <t>Tiger Muskie</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAC</t>
+          <t>TGM</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>MAC</t>
+          <t>TGM</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -881,10 +851,10 @@
         </is>
       </c>
       <c r="E7">
-        <v>220</v>
+        <v>16</v>
       </c>
       <c r="F7">
-        <v>0.2620863629674369</v>
+        <v>0.2778750004375</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -896,46 +866,41 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J7">
-        <v>4</v>
+      <c r="I7">
+        <v>8</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M7">
-        <v>3</v>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P7">
+          <t>1</t>
+        </is>
+      </c>
+      <c r="O7">
         <v>0.5</v>
       </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="Q7" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -944,17 +909,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Wipe</t>
+          <t>Lake Trout(Mackinaw)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>SXW</t>
+          <t>MAC</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SXW</t>
+          <t>MAC</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -963,10 +928,10 @@
         </is>
       </c>
       <c r="E8">
-        <v>139</v>
+        <v>220</v>
       </c>
       <c r="F8">
-        <v>0.195625900150203</v>
+        <v>0.2620863629363636</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -978,46 +943,41 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J8">
-        <v>4</v>
+      <c r="I8">
+        <v>8</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M8">
+      <c r="L8">
         <v>3</v>
       </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P8">
-        <v>1</v>
+      <c r="O8">
+        <v>0.5</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="Q8" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -1026,17 +986,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Smallmouth Bass</t>
+          <t>Wiper</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>SMB</t>
+          <t>SXW</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SMB</t>
+          <t>SXW</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1045,10 +1005,10 @@
         </is>
       </c>
       <c r="E9">
-        <v>327</v>
+        <v>139</v>
       </c>
       <c r="F9">
-        <v>0.3678516815772525</v>
+        <v>0.1956259000431655</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1060,46 +1020,41 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J9">
-        <v>2</v>
+      <c r="I9">
+        <v>12</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M9">
-        <v>2</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P9">
-        <v>0.5</v>
-      </c>
       <c r="Q9" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -1108,17 +1063,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Walleye</t>
+          <t>Smallmouth Bass</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>WALB</t>
+          <t>SMB</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>WAL</t>
+          <t>SMB</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1127,10 +1082,10 @@
         </is>
       </c>
       <c r="E10">
-        <v>1057</v>
+        <v>327</v>
       </c>
       <c r="F10">
-        <v>0.3168895931338209</v>
+        <v>0.3678516815443425</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1142,46 +1097,41 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J10">
-        <v>3</v>
+      <c r="I10">
+        <v>4</v>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M10">
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L10">
         <v>2</v>
       </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P10">
+      <c r="O10">
         <v>0.5</v>
       </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="Q10" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -1190,17 +1140,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>White Sucker</t>
+          <t>Walleye</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>WHS</t>
+          <t>WALB</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>WHS</t>
+          <t>WAL</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1209,10 +1159,10 @@
         </is>
       </c>
       <c r="E11">
-        <v>121</v>
+        <v>1057</v>
       </c>
       <c r="F11">
-        <v>0.1779351233166049</v>
+        <v>0.3168895930851466</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1224,65 +1174,60 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J11">
+      <c r="I11">
         <v>4</v>
       </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="K11" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L11">
+        <v>2</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M11">
-        <v>4</v>
-      </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P11">
-        <v>1</v>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O11">
+        <v>0.5</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Freshwater Drum</t>
+          <t>White Sucker</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>DRM</t>
+          <t>WHS</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>DRM</t>
+          <t>WHS</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1291,10 +1236,10 @@
         </is>
       </c>
       <c r="E12">
-        <v>22</v>
+        <v>121</v>
       </c>
       <c r="F12">
-        <v>0.07145454632964993</v>
+        <v>0.1779351232727273</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1306,46 +1251,41 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J12">
+      <c r="I12">
         <v>12</v>
       </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="M12">
-        <v>8</v>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L12">
+        <v>4</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P12">
-        <v>3</v>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="Q12" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -1354,17 +1294,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Gizzard Shed</t>
+          <t>Freshwater Drum</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GSD</t>
+          <t>DRM</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GSD</t>
+          <t>DRM</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1373,10 +1313,10 @@
         </is>
       </c>
       <c r="E13">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="F13">
-        <v>0.1075000011672575</v>
+        <v>0.07145454613636364</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1385,68 +1325,63 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="J13">
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I13">
+        <v>24</v>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L13">
         <v>8</v>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>No existing advisory</t>
-        </is>
-      </c>
-      <c r="M13">
-        <v>4</v>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>No existing advisory</t>
-        </is>
-      </c>
-      <c r="P13">
-        <v>2</v>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>No existing advisory</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Black Crappie</t>
+          <t>Gizzard Shed</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>BCR</t>
+          <t>GSD</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>BCR</t>
+          <t>GSD</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1455,10 +1390,10 @@
         </is>
       </c>
       <c r="E14">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="F14">
-        <v>0.1311680673770293</v>
+        <v>0.10750000075</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1467,68 +1402,63 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J14">
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I14">
+        <v>20</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>No existing advisory</t>
+        </is>
+      </c>
+      <c r="L14">
         <v>4</v>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M14">
-        <v>4</v>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P14">
-        <v>1</v>
+          <t>No existing advisory</t>
+        </is>
+      </c>
+      <c r="O14">
+        <v>2</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>No existing advisory</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>White Bass</t>
+          <t>Black Crappie</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>WBA</t>
+          <t>BCR</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>WBA</t>
+          <t>BCR</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1537,10 +1467,10 @@
         </is>
       </c>
       <c r="E15">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="F15">
-        <v>0.1182826088498468</v>
+        <v>0.1311680673697479</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1552,65 +1482,60 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J15">
-        <v>8</v>
+      <c r="I15">
+        <v>16</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M15">
+      <c r="L15">
         <v>4</v>
       </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P15">
-        <v>2</v>
+      <c r="O15">
+        <v>1</v>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Common Carp</t>
+          <t>White Bass</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>CPP</t>
+          <t>WBA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CPP</t>
+          <t>WBA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1619,10 +1544,10 @@
         </is>
       </c>
       <c r="E16">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="F16">
-        <v>0.09885483857003904</v>
+        <v>0.1182826088043478</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1634,65 +1559,60 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J16">
-        <v>8</v>
+      <c r="I16">
+        <v>20</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M16">
-        <v>8</v>
+      <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P16">
+      <c r="O16">
         <v>2</v>
       </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Yellow Perch</t>
+          <t>Common Carp</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>YPE</t>
+          <t>CPP</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>YPE</t>
+          <t>CPP</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1701,10 +1621,10 @@
         </is>
       </c>
       <c r="E17">
-        <v>195</v>
+        <v>62</v>
       </c>
       <c r="F17">
-        <v>0.09154102575396875</v>
+        <v>0.09885483853225806</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1716,46 +1636,41 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J17">
+      <c r="I17">
+        <v>24</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L17">
         <v>8</v>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M17">
-        <v>8</v>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P17">
+      <c r="O17">
         <v>2</v>
       </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="Q17" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -1764,17 +1679,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Striped Bass</t>
+          <t>Yellow Perch</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>SBS</t>
+          <t>YPE</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>SBS</t>
+          <t>YPE</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1783,10 +1698,10 @@
         </is>
       </c>
       <c r="E18">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="F18">
-        <v>0.1327777786387336</v>
+        <v>0.09154102564615385</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1798,46 +1713,41 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J18">
-        <v>4</v>
+      <c r="I18">
+        <v>24</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M18">
-        <v>4</v>
+      <c r="L18">
+        <v>8</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P18">
-        <v>1</v>
+      <c r="O18">
+        <v>2</v>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="Q18" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
         <is>
           <t>1</t>
         </is>
@@ -1846,17 +1756,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Channel Catfish</t>
+          <t>Striped Bass</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CCF</t>
+          <t>SBS</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CCF</t>
+          <t>SBS</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1865,10 +1775,10 @@
         </is>
       </c>
       <c r="E19">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="F19">
-        <v>0.1002734853942511</v>
+        <v>0.1327777783888889</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1880,65 +1790,60 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J19">
-        <v>8</v>
+      <c r="I19">
+        <v>16</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M19">
+      <c r="L19">
         <v>4</v>
       </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P19">
-        <v>2</v>
+      <c r="O19">
+        <v>1</v>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Largemouth Bass</t>
+          <t>Channel Catfish</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>LMB</t>
+          <t>CCF</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LMB</t>
+          <t>CCF</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1947,10 +1852,10 @@
         </is>
       </c>
       <c r="E20">
-        <v>252</v>
+        <v>132</v>
       </c>
       <c r="F20">
-        <v>0.1789980161905524</v>
+        <v>0.1002734853181818</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1962,65 +1867,60 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J20">
+      <c r="I20">
+        <v>20</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L20">
         <v>4</v>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O20">
+        <v>2</v>
+      </c>
+      <c r="P20" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M20">
-        <v>4</v>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>2</t>
-        </is>
-      </c>
-      <c r="P20">
-        <v>1</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>1</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Saugeye</t>
+          <t>Largemouth Bass</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>SAGB</t>
+          <t>LMB</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SAG</t>
+          <t>LMB</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -2029,10 +1929,10 @@
         </is>
       </c>
       <c r="E21">
-        <v>73</v>
+        <v>252</v>
       </c>
       <c r="F21">
-        <v>0.2181999998754018</v>
+        <v>0.1789980160515873</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -2044,65 +1944,60 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J21">
+      <c r="I21">
+        <v>12</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L21">
         <v>4</v>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O21">
+        <v>1</v>
+      </c>
+      <c r="P21" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M21">
-        <v>3</v>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P21">
-        <v>1</v>
-      </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Northern Pike</t>
+          <t>Saugeye</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NPKB</t>
+          <t>SAGB</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>NPK</t>
+          <t>SAG</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2111,10 +2006,10 @@
         </is>
       </c>
       <c r="E22">
-        <v>405</v>
+        <v>73</v>
       </c>
       <c r="F22">
-        <v>0.2961725933500278</v>
+        <v>0.2181999998493151</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2126,65 +2021,60 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J22">
+      <c r="I22">
+        <v>8</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L22">
         <v>3</v>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M22">
-        <v>2</v>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="P22">
-        <v>0.5</v>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Black Bullhead</t>
+          <t>Northern Pike</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>BBH</t>
+          <t>NPKB</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BBH</t>
+          <t>NPK</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2193,10 +2083,10 @@
         </is>
       </c>
       <c r="E23">
-        <v>76</v>
+        <v>405</v>
       </c>
       <c r="F23">
-        <v>0.08014473710405194</v>
+        <v>0.296172593308642</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2208,65 +2098,60 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J23">
-        <v>12</v>
+      <c r="I23">
+        <v>4</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M23">
-        <v>8</v>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P23">
-        <v>3</v>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O23">
+        <v>0.5</v>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Bluegill</t>
+          <t>Black Bullhead</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>BGL</t>
+          <t>BBH</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BGL</t>
+          <t>BBH</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -2275,10 +2160,10 @@
         </is>
       </c>
       <c r="E24">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F24">
-        <v>0.09547977559687043</v>
+        <v>0.08014473718421053</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2290,46 +2175,41 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J24">
+      <c r="I24">
+        <v>24</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L24">
         <v>8</v>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M24">
-        <v>8</v>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="P24">
-        <v>2</v>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="Q24" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -2338,17 +2218,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Green Sunfish</t>
+          <t>Bluegill</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SNF</t>
+          <t>BGL</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>SNF</t>
+          <t>BGL</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -2357,10 +2237,10 @@
         </is>
       </c>
       <c r="E25">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="F25">
-        <v>0.0805600001841783</v>
+        <v>0.09547977549438202</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2372,46 +2252,41 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J25">
-        <v>12</v>
+      <c r="I25">
+        <v>24</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="M25">
+      <c r="L25">
         <v>8</v>
       </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P25">
-        <v>3</v>
+      <c r="O25">
+        <v>2</v>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
       </c>
       <c r="Q25" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -2420,17 +2295,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Kokanee</t>
+          <t>Green Sunfish</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>KOK</t>
+          <t>SNF</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>KOK</t>
+          <t>SNF</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -2439,10 +2314,10 @@
         </is>
       </c>
       <c r="E26">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="F26">
-        <v>0.1401316831718281</v>
+        <v>0.08056000021333333</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2454,46 +2329,41 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J26">
-        <v>4</v>
+      <c r="I26">
+        <v>24</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="M26">
-        <v>4</v>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L26">
+        <v>8</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
           <t>4</t>
         </is>
       </c>
-      <c r="P26">
-        <v>1</v>
+      <c r="O26">
+        <v>3</v>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="Q26" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -2502,17 +2372,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Longnose Sucker</t>
+          <t>Kokanee</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>LGS</t>
+          <t>KOK</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>LGS</t>
+          <t>KOK</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -2521,10 +2391,10 @@
         </is>
       </c>
       <c r="E27">
-        <v>48</v>
+        <v>101</v>
       </c>
       <c r="F27">
-        <v>0.231293750111945</v>
+        <v>0.1401316831386138</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2533,68 +2403,63 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I27">
+        <v>16</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="L27">
+        <v>4</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J27">
-        <v>4</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>No existing advisory</t>
-        </is>
-      </c>
-      <c r="M27">
-        <v>3</v>
-      </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>No existing advisory</t>
-        </is>
-      </c>
-      <c r="P27">
+          <t>4</t>
+        </is>
+      </c>
+      <c r="O27">
         <v>1</v>
       </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>No existing advisory</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Colorado Pikeminnow</t>
+          <t>Longnose Sucker</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>SQF</t>
+          <t>LGS</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>SQF</t>
+          <t>LGS</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -2603,10 +2468,10 @@
         </is>
       </c>
       <c r="E28">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="F28">
-        <v>0.5800000011920929</v>
+        <v>0.2312937500416667</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2615,49 +2480,44 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="J28">
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I28">
+        <v>8</v>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>No existing advisory</t>
+        </is>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>No existing advisory</t>
+        </is>
+      </c>
+      <c r="O28">
         <v>1</v>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>No existing advisory</t>
-        </is>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>No existing advisory</t>
-        </is>
-      </c>
-      <c r="P28">
-        <v>0.25</v>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="Q28" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
         <is>
           <t>No existing advisory</t>
         </is>
@@ -2666,17 +2526,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>White Crappie</t>
+          <t>Colorado Pikeminnow</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>WCR</t>
+          <t>SQF</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>WCR</t>
+          <t>SQF</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -2685,10 +2545,10 @@
         </is>
       </c>
       <c r="E29">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="F29">
-        <v>0.06084615429146929</v>
+        <v>0.5800000011999999</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2697,68 +2557,63 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J29">
-        <v>16</v>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="I29">
+        <v>4</v>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="M29">
-        <v>12</v>
+          <t>No existing advisory</t>
+        </is>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P29">
-        <v>4</v>
+          <t>No existing advisory</t>
+        </is>
+      </c>
+      <c r="O29">
+        <v>0.25</v>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>2</t>
+          <t>No existing advisory</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Cutthroat</t>
+          <t>White Crappie</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>SRN</t>
+          <t>WCR</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>NAT</t>
+          <t>WCR</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -2767,10 +2622,10 @@
         </is>
       </c>
       <c r="E30">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F30">
-        <v>0.06650000018998976</v>
+        <v>0.06084615434615385</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2782,46 +2637,41 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J30">
-        <v>16</v>
+      <c r="I30">
+        <v>24</v>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
+          <t>4</t>
+        </is>
+      </c>
+      <c r="L30">
+        <v>12</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="M30">
-        <v>12</v>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="P30">
-        <v>3</v>
+      <c r="O30">
+        <v>4</v>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="Q30" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
         <is>
           <t>2</t>
         </is>
@@ -2830,17 +2680,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Spotted Bass</t>
+          <t>Cutthroat</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>SPB</t>
+          <t>SRN</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>SPB</t>
+          <t>NAT</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2849,10 +2699,10 @@
         </is>
       </c>
       <c r="E31">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F31">
-        <v>0.0964999981224537</v>
+        <v>0.066500000125</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2861,68 +2711,63 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J31">
-        <v>8</v>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I31">
+        <v>24</v>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>No existing advisory</t>
-        </is>
-      </c>
-      <c r="M31">
-        <v>8</v>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L31">
+        <v>12</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>No existing advisory</t>
-        </is>
-      </c>
-      <c r="P31">
-        <v>2</v>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="O31">
+        <v>3</v>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>No existing advisory</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Sauger</t>
+          <t>Crayfish</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>SGR</t>
+          <t>CFI</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>SGR</t>
+          <t>CFI</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -2931,10 +2776,10 @@
         </is>
       </c>
       <c r="E32">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="F32">
-        <v>0.1583531263750046</v>
+        <v>0.05107346940816326</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2946,46 +2791,41 @@
           <t>No</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J32">
+      <c r="I32">
+        <v>24</v>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>No existing advisory</t>
+        </is>
+      </c>
+      <c r="L32">
+        <v>12</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t>No existing advisory</t>
+        </is>
+      </c>
+      <c r="O32">
         <v>4</v>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>No existing advisory</t>
-        </is>
-      </c>
-      <c r="M32">
-        <v>4</v>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>No existing advisory</t>
-        </is>
-      </c>
-      <c r="P32">
-        <v>1</v>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="Q32" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
         <is>
           <t>No existing advisory</t>
         </is>
@@ -2994,17 +2834,17 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Arctic Grayling</t>
+          <t>Spotted Bass</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>GRA</t>
+          <t>SPB</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>GRA</t>
+          <t>SPB</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -3013,61 +2853,56 @@
         </is>
       </c>
       <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>0.096499998</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Mg/Kg</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I33">
+        <v>24</v>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>No existing advisory</t>
+        </is>
+      </c>
+      <c r="L33">
+        <v>8</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>No existing advisory</t>
+        </is>
+      </c>
+      <c r="O33">
         <v>2</v>
       </c>
-      <c r="F33">
-        <v>0.09849999845027925</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Mg/Kg</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J33">
-        <v>8</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>No existing advisory</t>
-        </is>
-      </c>
-      <c r="M33">
-        <v>8</v>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>No existing advisory</t>
-        </is>
-      </c>
-      <c r="P33">
-        <v>2</v>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="Q33" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
         <is>
           <t>No existing advisory</t>
         </is>
@@ -3076,17 +2911,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Pumpkinseed</t>
+          <t>Sauger</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>PKS</t>
+          <t>SGR</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>PKS</t>
+          <t>SGR</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3095,10 +2930,10 @@
         </is>
       </c>
       <c r="E34">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F34">
-        <v>0.04899999871850015</v>
+        <v>0.1583531263125</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -3107,49 +2942,44 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J34">
-        <v>20</v>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I34">
+        <v>12</v>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>No existing advisory</t>
-        </is>
-      </c>
-      <c r="M34">
-        <v>16</v>
+          <t>No existing advisory</t>
+        </is>
+      </c>
+      <c r="L34">
+        <v>4</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>No existing advisory</t>
-        </is>
-      </c>
-      <c r="P34">
-        <v>4</v>
+          <t>No existing advisory</t>
+        </is>
+      </c>
+      <c r="O34">
+        <v>1</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="Q34" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
         <is>
           <t>No existing advisory</t>
         </is>
@@ -3158,17 +2988,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Hybrid Bluegill</t>
+          <t>Arctic Grayling</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>HBG</t>
+          <t>GRA</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>HBG</t>
+          <t>GRA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3177,10 +3007,10 @@
         </is>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
-        <v>0.0670000016689301</v>
+        <v>0.09849999800000001</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3189,49 +3019,44 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J35">
-        <v>16</v>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I35">
+        <v>24</v>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>No existing advisory</t>
-        </is>
-      </c>
-      <c r="M35">
-        <v>12</v>
+          <t>No existing advisory</t>
+        </is>
+      </c>
+      <c r="L35">
+        <v>8</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>No existing advisory</t>
-        </is>
-      </c>
-      <c r="P35">
-        <v>3</v>
+          <t>No existing advisory</t>
+        </is>
+      </c>
+      <c r="O35">
+        <v>2</v>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="Q35" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
         <is>
           <t>No existing advisory</t>
         </is>
@@ -3240,17 +3065,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Rainbow Trout x Cutthroat</t>
+          <t>Pumpkinseed</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>RXC</t>
+          <t>PKS</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>RXC</t>
+          <t>PKS</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3262,7 +3087,7 @@
         <v>2</v>
       </c>
       <c r="F36">
-        <v>0.0364999994635582</v>
+        <v>0.048999999</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -3274,46 +3099,41 @@
           <t>Yes</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J36">
+      <c r="I36">
         <v>24</v>
       </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>No existing advisory</t>
-        </is>
-      </c>
-      <c r="M36">
-        <v>20</v>
+          <t>No existing advisory</t>
+        </is>
+      </c>
+      <c r="L36">
+        <v>16</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>No existing advisory</t>
-        </is>
-      </c>
-      <c r="P36">
+          <t>No existing advisory</t>
+        </is>
+      </c>
+      <c r="O36">
         <v>4</v>
       </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
       <c r="Q36" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
         <is>
           <t>No existing advisory</t>
         </is>
@@ -3322,17 +3142,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>White bass x wiper backcross</t>
+          <t>Hybrid Bluegill</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>SXX</t>
+          <t>HBG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>SXX</t>
+          <t>HBG</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3341,10 +3161,10 @@
         </is>
       </c>
       <c r="E37">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>0.9399999678134929</v>
+        <v>0.067000002</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3353,49 +3173,44 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="J37">
-        <v>1</v>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I37">
+        <v>24</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>No existing advisory</t>
-        </is>
-      </c>
-      <c r="M37">
-        <v>0.5</v>
+          <t>No existing advisory</t>
+        </is>
+      </c>
+      <c r="L37">
+        <v>12</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>No existing advisory</t>
-        </is>
-      </c>
-      <c r="P37">
-        <v>0.25</v>
+          <t>No existing advisory</t>
+        </is>
+      </c>
+      <c r="O37">
+        <v>3</v>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
       </c>
       <c r="Q37" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
         <is>
           <t>No existing advisory</t>
         </is>
@@ -3404,80 +3219,229 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
+          <t>Rainbow Trout x Cutthroat</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>RXC</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>RXC</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Hg</t>
+        </is>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>0.0364999995</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Mg/Kg</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I38">
+        <v>24</v>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>No existing advisory</t>
+        </is>
+      </c>
+      <c r="L38">
+        <v>20</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t>No existing advisory</t>
+        </is>
+      </c>
+      <c r="O38">
+        <v>4</v>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>No existing advisory</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>White bass x Wiperr backcross</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SXX</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>SXX</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Hg</t>
+        </is>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>0.939999968</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Mg/Kg</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>No existing advisory</t>
+        </is>
+      </c>
+      <c r="L39">
+        <v>0.5</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>No existing advisory</t>
+        </is>
+      </c>
+      <c r="O39">
+        <v>0.25</v>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>No existing advisory</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
           <t>Golden Shiner maybe (GSH)</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B40" t="inlineStr">
         <is>
           <t>GSF</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="C40" t="inlineStr">
         <is>
           <t>GSF</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Hg</t>
-        </is>
-      </c>
-      <c r="E38">
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Hg</t>
+        </is>
+      </c>
+      <c r="E40">
         <v>15</v>
       </c>
-      <c r="F38">
-        <v>0.02113333294788998</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Mg/Kg</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
+      <c r="F40">
+        <v>0.02113333326666667</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Mg/Kg</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>No</t>
-        </is>
-      </c>
-      <c r="J38">
+      <c r="I40">
         <v>24</v>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>No existing advisory</t>
-        </is>
-      </c>
-      <c r="M38">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>No existing advisory</t>
+        </is>
+      </c>
+      <c r="L40">
         <v>24</v>
       </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>No existing advisory</t>
-        </is>
-      </c>
-      <c r="P38">
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>No existing advisory</t>
+        </is>
+      </c>
+      <c r="O40">
         <v>12</v>
       </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>Yes</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
         <is>
           <t>No existing advisory</t>
         </is>
